--- a/model_exports/labels/2.0_False_False_8_1.xlsx
+++ b/model_exports/labels/2.0_False_False_8_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C731"/>
+  <dimension ref="A1:C734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-675691648802795522</t>
+          <t>t-729342722264420352</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,20 +466,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-498854240069373953</t>
+          <t>t-793443964900737024</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-498919835905327104</t>
+          <t>t-497139824780787712</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-517204809452380161</t>
+          <t>t-497141925451792384</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-706805466739949568</t>
+          <t>t-497161697371893760</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-900499401638129664</t>
+          <t>t-497242468627124224</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-900502092674215936</t>
+          <t>t-497474058641215489</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-497136108463865857</t>
+          <t>t-497485019451883520</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,20 +557,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-977115036585021440</t>
+          <t>t-517204809452380161</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-585505175835648000</t>
+          <t>t-688456240490508289</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,46 +583,46 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-648290405872627712</t>
+          <t>t-887418286014570496</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-681917420068564992</t>
+          <t>t-900499401638129664</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-682618491283857408</t>
+          <t>t-900502092674215936</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-683960479224586240</t>
+          <t>t-1032695855143370753</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,11 +635,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-684033292694327296</t>
+          <t>t-1033108055162941440</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-684082364117585920</t>
+          <t>t-548786999432605696</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,20 +661,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-684154242035089408</t>
+          <t>t-549031298929786880</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-719525216439910400</t>
+          <t>t-573511311906115584</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,24 +687,24 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-719704738913083392</t>
+          <t>t-573530576818434048</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-773705145389645824</t>
+          <t>t-605091889558261760</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -713,33 +713,33 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-775697386924445696</t>
+          <t>t-605138894867161088</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-865644367372967936</t>
+          <t>t-605351836636311552</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-866152720700514304</t>
+          <t>t-608798073561612289</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,7 +752,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-867771334083923968</t>
+          <t>t-641712529677398016</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-871116400701706241</t>
+          <t>t-658615758751211520</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,20 +778,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-871834189787791364</t>
+          <t>t-658616745809330176</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-872075702203559936</t>
+          <t>t-658617481574092800</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,7 +804,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-872158265681096708</t>
+          <t>t-683960479224586240</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,7 +817,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-918248158253273089</t>
+          <t>t-684033292694327296</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,7 +830,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-922305869466890240</t>
+          <t>t-684082364117585920</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,20 +843,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-956711426009202688</t>
+          <t>t-684154242035089408</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-973668678867746816</t>
+          <t>t-775697386924445696</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,11 +869,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-973683665661198337</t>
+          <t>t-815615714082095105</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -882,24 +882,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-1006110887999045632</t>
+          <t>t-816012131535613952</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-1006321460951027717</t>
+          <t>t-816043428630839296</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-1018804138195513344</t>
+          <t>t-816046695377158145</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,20 +921,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-1018807229267496962</t>
+          <t>t-816056629867188225</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-1018819644377923585</t>
+          <t>t-816367923770118149</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,59 +947,59 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-1018962868379750402</t>
+          <t>t-816380623434592257</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-1019003195874512897</t>
+          <t>t-848784048755531776</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-1019014466770333697</t>
+          <t>t-848852185962037248</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-1019698120098222080</t>
+          <t>t-848864915762929664</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-1024388985282383872</t>
+          <t>t-848891572318072832</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,11 +1012,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-1028763648074940416</t>
+          <t>t-849117747430797312</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1025,72 +1025,72 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-1028815266174517249</t>
+          <t>t-849222321772658688</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-1028873828355780608</t>
+          <t>t-849255695249625088</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-1029034881769197569</t>
+          <t>t-849369868306665472</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-1029100538422587393</t>
+          <t>t-849634891255951364</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-1030587514820669441</t>
+          <t>t-849637507117568000</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-1030625730407874563</t>
+          <t>t-849667565186146304</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,20 +1103,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-1031145618503360513</t>
+          <t>t-849686849312501763</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-1031309689848508416</t>
+          <t>t-849743357312024576</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,24 +1129,24 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-1036653090664075265</t>
+          <t>t-850026468906340353</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-1036716876020285440</t>
+          <t>t-850319148420694016</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1155,24 +1155,24 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-1037295289206546433</t>
+          <t>t-850426637086842884</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-1037346167451992064</t>
+          <t>t-850856929295552513</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1037351232451608577</t>
+          <t>t-867771334083923968</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,7 +1194,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1037351271697657857</t>
+          <t>t-937797554313551873</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,7 +1207,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1037367364231344128</t>
+          <t>t-937878737382772737</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,7 +1220,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-1037535909296709632</t>
+          <t>t-938887720075702272</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,33 +1233,33 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1054831014869123073</t>
+          <t>t-950310866641149952</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-1054887299698380800</t>
+          <t>t-968259732858376192</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-1055927061867585536</t>
+          <t>t-982113517636435969</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,24 +1272,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-694987975168495617</t>
+          <t>t-982126921570893825</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-934407049034846208</t>
+          <t>t-1000042512319483904</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1298,7 +1298,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-985698935074369536</t>
+          <t>t-1000115343019343872</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,7 +1311,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-1028077400779841537</t>
+          <t>t-1000762573766184961</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,20 +1324,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-517568253363634176</t>
+          <t>t-1001659726067830785</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-518546395729379328</t>
+          <t>t-1003697920015851520</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,20 +1350,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-519264703466315776</t>
+          <t>t-1006110887999045632</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-594694315915350017</t>
+          <t>t-1006321460951027717</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1376,7 +1376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-606774570255654912</t>
+          <t>t-507610683022643200</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,7 +1389,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-608562753129840640</t>
+          <t>t-694987975168495617</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,7 +1402,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-730338940872445952</t>
+          <t>t-827438952974004224</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1415,24 +1415,24 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-731342823132274688</t>
+          <t>t-863147106038624256</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-753035409660186624</t>
+          <t>t-863168507747454977</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1441,72 +1441,72 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-754462771173924865</t>
+          <t>t-582884078073987072</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-765818303898058752</t>
+          <t>t-582893069168611328</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-816207402437636096</t>
+          <t>t-685243474623336449</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-928952366598037506</t>
+          <t>t-739238212518957060</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-950256330316615680</t>
+          <t>t-739379635675271168</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-1017282491193782272</t>
+          <t>t-746432967740882945</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,7 +1519,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-1047054739547013120</t>
+          <t>t-754462771173924865</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,7 +1532,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-1047068713986547712</t>
+          <t>t-852681395487035392</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,85 +1545,85 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-1047079117244399617</t>
+          <t>t-893144326049419264</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-1047083573738500096</t>
+          <t>t-976076558824767489</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-612750086443917313</t>
+          <t>t-1010157701769281538</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-757940960609173505</t>
+          <t>t-1061557072670670850</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-847556586600095745</t>
+          <t>t-1061559942140780544</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-858084101320056832</t>
+          <t>t-506695122298212352</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-858490544007327747</t>
+          <t>t-770776256669372416</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1636,7 +1636,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-981152225723604993</t>
+          <t>t-903265153931608064</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,7 +1649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-507504670592356352</t>
+          <t>t-1006061673487138817</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,7 +1662,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-507919904779948032</t>
+          <t>t-676063553162379265</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,20 +1675,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-621832039763849218</t>
+          <t>t-745031440031694848</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-621845142903754752</t>
+          <t>t-747995724978192384</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,33 +1701,33 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-639446444949180417</t>
+          <t>t-876870634885844994</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-745031440031694848</t>
+          <t>t-876897987485630464</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-548325093256884224</t>
+          <t>t-876995236253376512</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,11 +1740,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-767772450964725760</t>
+          <t>t-910574474956812289</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1753,50 +1753,50 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-512768543989825541</t>
+          <t>t-923950718209359874</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-764358428777078784</t>
+          <t>t-923955178688188416</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-519554920140124160</t>
+          <t>t-923988304076464128</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-585851418843615232</t>
+          <t>t-962999495893176320</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -1805,33 +1805,33 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-626070342885249024</t>
+          <t>t-511616761545121792</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-836993229967015937</t>
+          <t>t-548325093256884224</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-837317730147713024</t>
+          <t>t-618395942002102272</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,7 +1844,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-858145943971037184</t>
+          <t>t-1018620410819219456</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,7 +1857,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-858516314167627776</t>
+          <t>t-519554920140124160</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,33 +1870,33 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-868226298719633408</t>
+          <t>t-774727266823581696</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-966707160049766400</t>
+          <t>t-832310546871484416</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-967596306297483265</t>
+          <t>t-836993229967015937</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,33 +1909,33 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-967763105525764097</t>
+          <t>t-837317730147713024</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-967806729865060352</t>
+          <t>t-840253641885913088</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-967827685333454849</t>
+          <t>t-927521858815131648</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,11 +1948,11 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-968065709459750912</t>
+          <t>t-978735824383590400</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1961,24 +1961,24 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-968790557077262336</t>
+          <t>t-1005217349610426371</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-978735824383590400</t>
+          <t>t-843394427347320833</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1987,37 +1987,37 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-981162868749033472</t>
+          <t>t-540815358715002880</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-981305166392692736</t>
+          <t>t-568441199297761281</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-981306180961275904</t>
+          <t>t-568878359158984704</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -2026,59 +2026,59 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-1000477141224558594</t>
+          <t>t-818386811332558848</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-681802042885697536</t>
+          <t>t-818898970961473536</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-682128192019234816</t>
+          <t>t-926892709188702208</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-682147581405859841</t>
+          <t>t-948484381987037185</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-682223092198936576</t>
+          <t>t-948486603227451392</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,20 +2091,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-682287065824931840</t>
+          <t>t-948505461745168384</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-682459381347254272</t>
+          <t>t-948538940134477824</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,11 +2117,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-682632199527641089</t>
+          <t>t-948573984802689025</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -2130,46 +2130,46 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-682755737790099456</t>
+          <t>t-955387095228567552</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-682908634020470785</t>
+          <t>t-547652103607697408</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-682915879026339840</t>
+          <t>t-671527403521462276</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-683017640638582784</t>
+          <t>t-949552218650365952</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2182,7 +2182,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-683036658942513152</t>
+          <t>t-546995440701296643</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2195,7 +2195,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-683077568287866880</t>
+          <t>t-841795901764993024</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,20 +2208,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-683235960692314112</t>
+          <t>t-841877177624850434</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-683258563628777472</t>
+          <t>t-611996097129619456</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,7 +2234,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-683386799184543745</t>
+          <t>t-622526710358114306</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,11 +2247,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-683399457254326272</t>
+          <t>t-624161549528096768</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -2260,24 +2260,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-683602691965206528</t>
+          <t>t-879367414802153472</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-683628764622905344</t>
+          <t>t-912821640328773633</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2286,46 +2286,46 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-683644184683753472</t>
+          <t>t-961384199684001793</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-683649428587155456</t>
+          <t>t-985892254756884480</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-683773064040050688</t>
+          <t>t-575206069833629696</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-683968472968228864</t>
+          <t>t-602966767602831362</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,33 +2338,33 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-683979793273065473</t>
+          <t>t-602969826642898945</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-684007082555748352</t>
+          <t>t-603005702697713664</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-684323489562558465</t>
+          <t>t-698546841881853953</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,46 +2377,46 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-685408547975331840</t>
+          <t>t-782264769742934016</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-568441199297761281</t>
+          <t>t-870660332800397312</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-568878359158984704</t>
+          <t>t-870684149173977089</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-630358013853990912</t>
+          <t>t-948592886060380161</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2429,11 +2429,11 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-743488475874353153</t>
+          <t>t-973190028435353600</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -2442,7 +2442,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-743501818358042625</t>
+          <t>t-621875663901863937</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,24 +2455,24 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-818386811332558848</t>
+          <t>t-756982430985166848</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-818898970961473536</t>
+          <t>t-756983738035077120</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2481,11 +2481,11 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-673151835868430336</t>
+          <t>t-757172169029804034</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2494,33 +2494,33 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-673156978059968512</t>
+          <t>t-624561158788247552</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-673168234577838080</t>
+          <t>t-834484332148297728</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-923100909521068032</t>
+          <t>t-636384018599030785</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2533,11 +2533,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-552038248218767360</t>
+          <t>t-859838431719030785</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -2546,46 +2546,46 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-552266751304798209</t>
+          <t>t-860938986382135296</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-547131830642569216</t>
+          <t>t-861076485599354880</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-758769139905204224</t>
+          <t>t-913204200187863040</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-568623295811194880</t>
+          <t>t-988107827615952898</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,7 +2598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-778616752993214464</t>
+          <t>t-992484226795823105</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2611,50 +2611,50 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-873219337427062785</t>
+          <t>t-671936284651196416</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-985892254756884480</t>
+          <t>t-694715871097278464</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-987722164903251968</t>
+          <t>t-753685864471863300</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-658242856386187264</t>
+          <t>t-1006535367464509440</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -2663,20 +2663,20 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-707957967094685696</t>
+          <t>t-1006670876169949190</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-902218968345272321</t>
+          <t>t-1022049211108483072</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,7 +2689,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-737748026983354372</t>
+          <t>t-1022100736476360704</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,7 +2702,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-737752255571595264</t>
+          <t>t-730685047137800192</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2715,33 +2715,33 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-1040717985516859392</t>
+          <t>t-730687533638619136</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-594613009575579649</t>
+          <t>t-733452580194410497</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-621245283935121408</t>
+          <t>t-899745107900940288</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,46 +2754,46 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-764015991344869376</t>
+          <t>t-899747204986019844</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-782264769742934016</t>
+          <t>t-743015826601697281</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-849724022598139904</t>
+          <t>t-872405308236337153</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-878162982953402368</t>
+          <t>t-1034302397882015745</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,24 +2806,24 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-891497407179104257</t>
+          <t>t-1034317413309919232</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-906974272832376832</t>
+          <t>t-1034572709651533825</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -2832,20 +2832,20 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-941641219024748544</t>
+          <t>t-1034867901902319618</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-753685864471863300</t>
+          <t>t-1034875857125425152</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2858,7 +2858,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-858172777098072064</t>
+          <t>t-1034886406957662208</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,11 +2871,11 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-858203574500818944</t>
+          <t>t-1034922534326738944</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -2884,7 +2884,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-858267644507631616</t>
+          <t>t-1035345459290746880</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2897,7 +2897,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-858374877706932224</t>
+          <t>t-1035480584934514690</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,7 +2910,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-858419995453292545</t>
+          <t>t-1035555438882897926</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,20 +2923,20 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-861649200160710656</t>
+          <t>t-1036020306895413248</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-695269003892228096</t>
+          <t>t-1036935289485316096</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,11 +2949,11 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-883046827251179521</t>
+          <t>t-1037072521940623360</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -2962,11 +2962,11 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-883048887786909698</t>
+          <t>t-1037363401314455553</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -2975,102 +2975,102 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-883064523128791040</t>
+          <t>t-1037404586812821505</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-883077275679432704</t>
+          <t>t-1037450313920393218</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-730685047137800192</t>
+          <t>t-1037475943969898497</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-730687533638619136</t>
+          <t>t-1037727143038517248</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-872405308236337153</t>
+          <t>t-1037749001658032128</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-781685141211058176</t>
+          <t>t-1042035586717110280</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1029734360872771584</t>
+          <t>t-898040952396193792</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-992428512744222721</t>
+          <t>t-898113774225301505</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -3079,59 +3079,59 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1034302397882015745</t>
+          <t>t-530194842861580288</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1034317413309919232</t>
+          <t>t-601913063172771840</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1034572709651533825</t>
+          <t>t-602589391198900226</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1034867901902319618</t>
+          <t>t-604384366886834177</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-1034875857125425152</t>
+          <t>t-604797500965265408</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,7 +3144,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-1034886406957662208</t>
+          <t>t-605112787141033985</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,24 +3157,24 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-1034922534326738944</t>
+          <t>t-605369768720396288</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-1035345459290746880</t>
+          <t>t-652481072199036928</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1035480584934514690</t>
+          <t>t-708426270242164736</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,24 +3196,24 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-1035555438882897926</t>
+          <t>t-785997107094093825</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-1036020306895413248</t>
+          <t>t-870028367990599681</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -3222,20 +3222,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-1036935289485316096</t>
+          <t>t-911712205657317376</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-1037072521940623360</t>
+          <t>t-956329812573945857</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,11 +3248,11 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-1037363401314455553</t>
+          <t>t-965598107676430336</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -3261,11 +3261,11 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-1037404586812821505</t>
+          <t>t-978842874749046784</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-1037450313920393218</t>
+          <t>t-979067875213234176</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,20 +3287,20 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-1037475943969898497</t>
+          <t>t-1009549219240308737</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-1037727143038517248</t>
+          <t>t-1036976718718881793</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,50 +3313,50 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-1037749001658032128</t>
+          <t>t-561309176475824128</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-924790802882146304</t>
+          <t>t-578194227852505088</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-1050667252591120384</t>
+          <t>t-620793830413959168</t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-692385146725646340</t>
+          <t>t-626642400555892737</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -3365,11 +3365,11 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-682987194840150016</t>
+          <t>t-626741309693394948</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -3378,7 +3378,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-708426270242164736</t>
+          <t>t-626870204199534598</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,11 +3391,11 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-737800453916897280</t>
+          <t>t-697902764966301696</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -3404,11 +3404,11 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-757613409047343105</t>
+          <t>t-756927547049320448</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-780146894357929984</t>
+          <t>t-885230061556813824</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,11 +3430,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-833578679338942464</t>
+          <t>t-885519574443020288</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -3443,46 +3443,46 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-898515685369946113</t>
+          <t>t-1004794708802048002</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-1014570924681687042</t>
+          <t>t-1008536493269237760</t>
         </is>
       </c>
       <c r="B233" t="n">
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-1028684190169149440</t>
+          <t>t-1016850546236542983</t>
         </is>
       </c>
       <c r="B234" t="n">
         <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-1028764502517592065</t>
+          <t>t-1029525697382047746</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,7 +3495,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-1039643454140231684</t>
+          <t>t-1029541696839798791</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3508,11 +3508,11 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-1039968877537456128</t>
+          <t>t-1029769212384948225</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-1047282657053298690</t>
+          <t>t-683790340701073408</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,20 +3534,20 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-533407970244456448</t>
+          <t>t-836289804664979457</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-561309176475824128</t>
+          <t>t-630004911024046080</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,7 +3560,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-636611275666128896</t>
+          <t>t-630051857654751232</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3573,11 +3573,11 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-750893641632063488</t>
+          <t>t-630833400857919488</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3586,50 +3586,50 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-1004794708802048002</t>
+          <t>t-647384012202356736</t>
         </is>
       </c>
       <c r="B243" t="n">
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-1006674770983817217</t>
+          <t>t-648159002224914436</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-1008536493269237760</t>
+          <t>t-648232794137718784</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-534896855906537472</t>
+          <t>t-648426685910618112</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -3638,11 +3638,11 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-673774894543470592</t>
+          <t>t-653152901892739072</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3651,37 +3651,37 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-673911765848035328</t>
+          <t>t-653993411570192384</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-1050781684117987329</t>
+          <t>t-705116084911763456</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-580289963599765504</t>
+          <t>t-832931106873819136</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -3690,7 +3690,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-605776092780044291</t>
+          <t>t-856624832292827137</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,7 +3703,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-647384012202356736</t>
+          <t>t-919174352289005568</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,46 +3716,46 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-648159002224914436</t>
+          <t>t-919528265718665216</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-648232794137718784</t>
+          <t>t-953220290657492992</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-648426685910618112</t>
+          <t>t-984477965856772096</t>
         </is>
       </c>
       <c r="B255" t="n">
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-651743798721122304</t>
+          <t>t-984491425478971393</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,7 +3768,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-708952691926548480</t>
+          <t>t-984517270725644288</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,24 +3781,24 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-721969035412422656</t>
+          <t>t-985567499843489798</t>
         </is>
       </c>
       <c r="B258" t="n">
         <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-722671206881746944</t>
+          <t>t-1039508390869786629</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -3807,24 +3807,24 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-726061174727532544</t>
+          <t>t-1039553624345661440</t>
         </is>
       </c>
       <c r="B260" t="n">
         <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-757849369496301569</t>
+          <t>t-1039619721644191744</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-758572772490637312</t>
+          <t>t-1014627656082579457</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,33 +3846,33 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-767994872578056192</t>
+          <t>t-772514094360305664</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-783921439044841474</t>
+          <t>t-833086724096028673</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-784017385615265792</t>
+          <t>t-836430214368481288</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,20 +3885,20 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-784336997477261312</t>
+          <t>t-570559495811813376</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-784835805999198208</t>
+          <t>t-570650767369109504</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,33 +3911,33 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-845940693256286208</t>
+          <t>t-570656230466838528</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-972048308909826048</t>
+          <t>t-570659758706962432</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-986933673697120257</t>
+          <t>t-570724512095969280</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,20 +3950,20 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-1026228357996969984</t>
+          <t>t-570966152807100416</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-1041944531015483392</t>
+          <t>t-570990183648243712</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,20 +3976,20 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-1042049144620285953</t>
+          <t>t-571060362520502272</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-1045126070540865541</t>
+          <t>t-571231922355097600</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,24 +4002,24 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-646786233809539072</t>
+          <t>t-571320451407974400</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-659041979200880644</t>
+          <t>t-571330597400018944</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -4028,37 +4028,37 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-670921727346614272</t>
+          <t>t-571345826099941376</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-698062078922375169</t>
+          <t>t-571920017329156096</t>
         </is>
       </c>
       <c r="B278" t="n">
         <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-702894496737071105</t>
+          <t>t-572029056453115906</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -4067,59 +4067,59 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-727758683510329344</t>
+          <t>t-573087826360836097</t>
         </is>
       </c>
       <c r="B280" t="n">
         <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-727889856274247680</t>
+          <t>t-669588910935285760</t>
         </is>
       </c>
       <c r="B281" t="n">
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-933464546110529538</t>
+          <t>t-669601333348073473</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-570999709160116224</t>
+          <t>t-769170271928483840</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-571255966727053312</t>
+          <t>t-801380815166930945</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,46 +4132,46 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-573120640175112192</t>
+          <t>t-1060159476664356864</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-592720340289224705</t>
+          <t>t-563347902408695811</t>
         </is>
       </c>
       <c r="B286" t="n">
         <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-791567733695606784</t>
+          <t>t-933464546110529538</t>
         </is>
       </c>
       <c r="B287" t="n">
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-632590097284734976</t>
+          <t>t-722677158112587776</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4184,20 +4184,20 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-668121380727226368</t>
+          <t>t-791567733695606784</t>
         </is>
       </c>
       <c r="B289" t="n">
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-736272987683426305</t>
+          <t>t-788874378666737664</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,7 +4210,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-864137650625753088</t>
+          <t>t-800018818399694848</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,7 +4223,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-864465975068037122</t>
+          <t>t-800716652195282946</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,7 +4236,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-864657619700658176</t>
+          <t>t-884449137407791104</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,59 +4249,59 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-968874912806068224</t>
+          <t>t-885109132638003200</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-984138305477505025</t>
+          <t>t-885140571232374784</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-571264964683436033</t>
+          <t>t-885166687825350662</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-1012441483654332417</t>
+          <t>t-885188751936417793</t>
         </is>
       </c>
       <c r="B297" t="n">
         <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-729341140499976193</t>
+          <t>t-891969624929075201</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-729421969410564096</t>
+          <t>t-892105609071349760</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,7 +4327,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-729436964269658112</t>
+          <t>t-892129259686428672</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,85 +4340,85 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-729446762138591232</t>
+          <t>t-930445521671589888</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-729454167735959552</t>
+          <t>t-984138305477505025</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-729749802209054720</t>
+          <t>t-992126872036233224</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-573281947792883712</t>
+          <t>t-993085432052273153</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-860196024056414208</t>
+          <t>t-1049061003617607680</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-575443997050691585</t>
+          <t>t-1049351090909667329</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-821077876112035840</t>
+          <t>t-1050209065153036288</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -4431,20 +4431,20 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-821090113476325376</t>
+          <t>t-578003881596215296</t>
         </is>
       </c>
       <c r="B308" t="n">
         <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-601584910428729344</t>
+          <t>t-798356661148655616</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -4457,11 +4457,11 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-669944728155090944</t>
+          <t>t-798650812511588352</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -4470,11 +4470,11 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-765721842803802112</t>
+          <t>t-995839519449640960</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -4483,59 +4483,59 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-878774409280016384</t>
+          <t>t-1012441483654332417</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-1028993321757077505</t>
+          <t>t-729341140499976193</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-610843183715463168</t>
+          <t>t-729421969410564096</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-735633517237919744</t>
+          <t>t-729436964269658112</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-771587937746071552</t>
+          <t>t-729446762138591232</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,7 +4548,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-1039755728448352257</t>
+          <t>t-729454167735959552</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -4561,7 +4561,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-1039888860501688320</t>
+          <t>t-729749802209054720</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,11 +4574,11 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-1055172080499515392</t>
+          <t>t-686862688752807937</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
@@ -4587,11 +4587,11 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-1055204302220943368</t>
+          <t>t-763085869045653505</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
         <v>1</v>
@@ -4600,24 +4600,24 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-646419866795118592</t>
+          <t>t-763088808799797248</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-677918822104473600</t>
+          <t>t-831479807821103104</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -4626,33 +4626,33 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-765678719205724160</t>
+          <t>t-831825002534154241</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-981921278876684288</t>
+          <t>t-575443997050691585</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-653702331221999616</t>
+          <t>t-609166003570802689</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -4665,46 +4665,46 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-659172274482733056</t>
+          <t>t-1002347419114311681</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-659184469690175488</t>
+          <t>t-935929183758356480</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-661127792231321600</t>
+          <t>t-1042391419745435648</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-794366500865982467</t>
+          <t>t-601584910428729344</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -4717,11 +4717,11 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-679420394223345665</t>
+          <t>t-640921153591050240</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330" t="n">
         <v>1</v>
@@ -4730,7 +4730,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-846003285282697216</t>
+          <t>t-669944728155090944</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -4743,11 +4743,11 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-848401927432019970</t>
+          <t>t-766980130283610112</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
         <v>1</v>
@@ -4756,7 +4756,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-716262349536149504</t>
+          <t>t-848618580681912320</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,7 +4769,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-725450676986335232</t>
+          <t>t-848657153367953411</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,7 +4782,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-913012097595867137</t>
+          <t>t-848877245439594496</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4795,7 +4795,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-756636337130774528</t>
+          <t>t-1028993321757077505</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,37 +4808,37 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-971386931857772544</t>
+          <t>t-1047259835777990656</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-895778141523894272</t>
+          <t>t-610843183715463168</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-1032899444918898688</t>
+          <t>t-1049990926406492160</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-783618446827356161</t>
+          <t>t-643571264011898881</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,7 +4860,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-784456852864065536</t>
+          <t>t-646419866795118592</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -4873,33 +4873,33 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-785262083638169600</t>
+          <t>t-765678719205724160</t>
         </is>
       </c>
       <c r="B342" t="n">
         <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-897110070059728897</t>
+          <t>t-659172274482733056</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-897827875231080448</t>
+          <t>t-659184469690175488</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,7 +4912,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-796435007673946112</t>
+          <t>t-660109346915770368</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,7 +4925,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-796529318373584896</t>
+          <t>t-660117216885477376</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,33 +4938,33 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-796701113995104256</t>
+          <t>t-660467638917660672</t>
         </is>
       </c>
       <c r="B347" t="n">
         <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-796745584795389952</t>
+          <t>t-667433104118833152</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-848529770258288642</t>
+          <t>t-904587230177443840</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,20 +4977,20 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-863757133304795136</t>
+          <t>t-905072243822264320</t>
         </is>
       </c>
       <c r="B350" t="n">
         <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-860879398387556352</t>
+          <t>t-905081971667296257</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,50 +5003,50 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-884885746984681473</t>
+          <t>t-905280030833614849</t>
         </is>
       </c>
       <c r="B352" t="n">
         <v>1</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-884938114657128448</t>
+          <t>t-753352623630278664</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-966639239407525888</t>
+          <t>t-794366500865982467</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-1052284815779622917</t>
+          <t>t-846003285282697216</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -5055,7 +5055,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-1052565742183272454</t>
+          <t>t-720246081364365312</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,20 +5068,20 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-1052712831517450241</t>
+          <t>t-720295493985677312</t>
         </is>
       </c>
       <c r="B357" t="n">
         <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-913513656511614977</t>
+          <t>t-939871571342249985</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,7 +5094,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-519240969838166016</t>
+          <t>t-913012097595867137</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,50 +5107,50 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-542806015075713026</t>
+          <t>t-744360846420107265</t>
         </is>
       </c>
       <c r="B360" t="n">
         <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-621860106481762304</t>
+          <t>t-751165986527674368</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-673357306764140544</t>
+          <t>t-751167208219406336</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-991032269405073408</t>
+          <t>t-1044155993779851264</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -5159,85 +5159,85 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-991077450368061440</t>
+          <t>t-751197637794230272</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-519370037812277248</t>
+          <t>t-1029396532313968640</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-1048603963069779968</t>
+          <t>t-1029397392343425024</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-538351189679939584</t>
+          <t>t-1029408763877498885</t>
         </is>
       </c>
       <c r="B367" t="n">
         <v>1</v>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-635439309563260929</t>
+          <t>t-1029408838305361921</t>
         </is>
       </c>
       <c r="B368" t="n">
         <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-635461097114484736</t>
+          <t>t-1029566349918527488</t>
         </is>
       </c>
       <c r="B369" t="n">
         <v>1</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-635467880918818816</t>
+          <t>t-1046763431649574912</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,7 +5250,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-635469518022803456</t>
+          <t>t-843607928133292033</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -5263,7 +5263,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-635491308438728704</t>
+          <t>t-996559091932770305</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,7 +5276,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-635718998781390848</t>
+          <t>t-764984507686490112</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,11 +5289,11 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-636228687013265410</t>
+          <t>t-998557475266859013</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -5302,11 +5302,11 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-650288114116730880</t>
+          <t>t-999117713749495808</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375" t="n">
         <v>1</v>
@@ -5315,37 +5315,37 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-773146400129441792</t>
+          <t>t-915593286122950656</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-750337554457694208</t>
+          <t>t-915603421222309888</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-782797044729741312</t>
+          <t>t-915603564743073792</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C378" t="n">
         <v>1</v>
@@ -5354,7 +5354,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-801681235982557184</t>
+          <t>t-1042371802121596928</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -5367,7 +5367,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-589443945773535232</t>
+          <t>t-779066799077851136</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,85 +5380,85 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-699600707318587392</t>
+          <t>t-812266777711431682</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-1027294707855048705</t>
+          <t>t-823317212446556161</t>
         </is>
       </c>
       <c r="B382" t="n">
         <v>1</v>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-884450764084662272</t>
+          <t>t-847243626082050048</t>
         </is>
       </c>
       <c r="B383" t="n">
         <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-884455668140445696</t>
+          <t>t-847412512383356932</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-884457897043927040</t>
+          <t>t-847416452424519680</t>
         </is>
       </c>
       <c r="B385" t="n">
         <v>1</v>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-884462539458977792</t>
+          <t>t-847625871712112640</t>
         </is>
       </c>
       <c r="B386" t="n">
         <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-951835055445413893</t>
+          <t>t-847873968065433600</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,11 +5471,11 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-530728667891380225</t>
+          <t>t-848285144846921728</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" t="n">
         <v>1</v>
@@ -5484,7 +5484,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-957544710825967616</t>
+          <t>t-848349687950266373</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,46 +5497,46 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-1051891605035241474</t>
+          <t>t-848632201470259200</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-540907891566575616</t>
+          <t>t-848638922687221760</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-541174080833978368</t>
+          <t>t-848870222769606658</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-544508576757477376</t>
+          <t>t-848971430775709697</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,20 +5549,20 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-544546124984762370</t>
+          <t>t-849083151532032000</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-544574124832468992</t>
+          <t>t-849228504088670208</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,50 +5575,50 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-544578399596187648</t>
+          <t>t-855194797681897472</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-544615900180393984</t>
+          <t>t-855248575567147008</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-544793457190268928</t>
+          <t>t-939854628749004801</t>
         </is>
       </c>
       <c r="B398" t="n">
         <v>0</v>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-544806009018265601</t>
+          <t>t-902559120888184833</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399" t="n">
         <v>1</v>
@@ -5627,7 +5627,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-545012520793436160</t>
+          <t>t-903611928827674624</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5640,7 +5640,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-545215683404267523</t>
+          <t>t-881979226697740288</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,7 +5653,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-603463396365836289</t>
+          <t>t-1034597062573211651</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,7 +5666,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-629222720161640449</t>
+          <t>t-1036704309923246081</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5679,7 +5679,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-653264904581984256</t>
+          <t>t-912214251749744641</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,20 +5692,20 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-653992755027386368</t>
+          <t>t-1042065710745309186</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-677902230650003457</t>
+          <t>t-1043080309376466944</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5718,11 +5718,11 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-769394896344064001</t>
+          <t>t-1043179210905464832</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C407" t="n">
         <v>1</v>
@@ -5731,63 +5731,63 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-770572723777105920</t>
+          <t>t-519240969838166016</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-842006165705875457</t>
+          <t>t-708340740556980225</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-884135398854635520</t>
+          <t>t-941194598453571586</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-884163532958441472</t>
+          <t>t-1016375311733284864</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-884173621224239104</t>
+          <t>t-1040961500553388033</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
         <v>1</v>
@@ -5796,7 +5796,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-884176826679136256</t>
+          <t>t-517603456123944960</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,7 +5809,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-884179431887167489</t>
+          <t>t-517609652138569728</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,24 +5822,24 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-884282035384320001</t>
+          <t>t-518412519053221888</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-884290062598451200</t>
+          <t>t-519245102263574528</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
         <v>0</v>
@@ -5848,33 +5848,33 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-884310032518664194</t>
+          <t>t-519387709392314368</t>
         </is>
       </c>
       <c r="B417" t="n">
         <v>1</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-884325033430200320</t>
+          <t>t-519393743326441472</t>
         </is>
       </c>
       <c r="B418" t="n">
         <v>1</v>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-913063437118341121</t>
+          <t>t-519395800687083520</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -5887,7 +5887,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-954338199610019841</t>
+          <t>t-519401695307390976</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,50 +5900,50 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-954407598069084160</t>
+          <t>t-650288114116730880</t>
         </is>
       </c>
       <c r="B421" t="n">
         <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-954798702530412546</t>
+          <t>t-661802861446209536</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-955111272852414464</t>
+          <t>t-950172807996026880</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-955374632034594816</t>
+          <t>t-950367246299394048</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
         <v>1</v>
@@ -5952,63 +5952,63 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-955380505121259520</t>
+          <t>t-517992573227778048</t>
         </is>
       </c>
       <c r="B425" t="n">
         <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-955409675251482624</t>
+          <t>t-869830075268685825</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-955739643634421760</t>
+          <t>t-782797044729741312</t>
         </is>
       </c>
       <c r="B427" t="n">
         <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-955742558189162496</t>
+          <t>t-699600707318587392</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-955766281730445313</t>
+          <t>t-523536371525623808</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -6017,63 +6017,63 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-955807241533304833</t>
+          <t>t-901639048464388096</t>
         </is>
       </c>
       <c r="B430" t="n">
         <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-956101750120857601</t>
+          <t>t-901662243594612737</t>
         </is>
       </c>
       <c r="B431" t="n">
         <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-956220929067151360</t>
+          <t>t-901835893232857088</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-956413340225589248</t>
+          <t>t-901991202857377792</t>
         </is>
       </c>
       <c r="B433" t="n">
         <v>1</v>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-956438932681523200</t>
+          <t>t-902096694422228992</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -6082,11 +6082,11 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-956447631714279424</t>
+          <t>t-902156696407216129</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -6095,50 +6095,50 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-956464588559671297</t>
+          <t>t-902188288789925889</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-956513066228834304</t>
+          <t>t-902258946840313856</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-965524750264135680</t>
+          <t>t-902339386959958016</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-966320851678318593</t>
+          <t>t-902474134315302912</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
@@ -6147,33 +6147,33 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-967380419707535360</t>
+          <t>t-642554131211755524</t>
         </is>
       </c>
       <c r="B440" t="n">
         <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-987423120817643520</t>
+          <t>t-644488507239628800</t>
         </is>
       </c>
       <c r="B441" t="n">
         <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-1048194085624995840</t>
+          <t>t-644488513442983937</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -6186,7 +6186,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-1052528388341149696</t>
+          <t>t-800968114653401088</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,7 +6199,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-652506002957422592</t>
+          <t>t-738708820491259904</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -6212,7 +6212,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-712209810511564800</t>
+          <t>t-738754856811417601</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,20 +6225,20 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-750337802257129474</t>
+          <t>t-738830571351224320</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-552766016325840896</t>
+          <t>t-739181708906467329</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -6251,24 +6251,24 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-560682074529484800</t>
+          <t>t-957544710825967616</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-888058781363580930</t>
+          <t>t-576412478135005185</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="n">
         <v>1</v>
@@ -6277,11 +6277,11 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-972395558735368192</t>
+          <t>t-603463396365836289</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="n">
         <v>0</v>
@@ -6290,124 +6290,124 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-1018785093295464448</t>
+          <t>t-787588682731626496</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-1034815239219539970</t>
+          <t>t-809171890690523137</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-1048216558785449986</t>
+          <t>t-834770863664795650</t>
         </is>
       </c>
       <c r="B453" t="n">
         <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-567369806647951362</t>
+          <t>t-842006165705875457</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-567639888489500672</t>
+          <t>t-884135398854635520</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-657116242692734976</t>
+          <t>t-884163532958441472</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-756468934379966464</t>
+          <t>t-884173621224239104</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-778479315071664128</t>
+          <t>t-884176826679136256</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-861227956118716416</t>
+          <t>t-884179431887167489</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-1024201138277638144</t>
+          <t>t-884282035384320001</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,37 +6420,37 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-722410262058397697</t>
+          <t>t-884290062598451200</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-862635910306856964</t>
+          <t>t-884310032518664194</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-862992827487309824</t>
+          <t>t-884325033430200320</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C463" t="n">
         <v>1</v>
@@ -6459,11 +6459,11 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-863003997464080384</t>
+          <t>t-950088164777123841</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -6472,11 +6472,11 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-863121747360571392</t>
+          <t>t-950818741209747456</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C465" t="n">
         <v>0</v>
@@ -6485,11 +6485,11 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-988840187785568257</t>
+          <t>t-951169520584024064</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
         <v>0</v>
@@ -6498,11 +6498,11 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-957917970390450177</t>
+          <t>t-951600654866317313</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C467" t="n">
         <v>0</v>
@@ -6511,20 +6511,20 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-587481090845179905</t>
+          <t>t-951687956045156352</t>
         </is>
       </c>
       <c r="B468" t="n">
         <v>0</v>
       </c>
       <c r="C468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-956419595136585729</t>
+          <t>t-977899948724379649</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,24 +6537,24 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-601387987851677696</t>
+          <t>t-1001548678748954624</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-601436583682703361</t>
+          <t>t-1001557802375110657</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C471" t="n">
         <v>1</v>
@@ -6563,20 +6563,20 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-968152808062160896</t>
+          <t>t-1006399568249008128</t>
         </is>
       </c>
       <c r="B472" t="n">
         <v>1</v>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-608880570362437632</t>
+          <t>t-1006422910762995712</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,20 +6589,20 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-880840050245849088</t>
+          <t>t-1006422931839299584</t>
         </is>
       </c>
       <c r="B474" t="n">
         <v>1</v>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-916986223478140928</t>
+          <t>t-1006427045709180929</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -6615,7 +6615,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-615666964451606528</t>
+          <t>t-1006463635693203456</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -6628,7 +6628,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-615728570888003584</t>
+          <t>t-1008363588552151040</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -6641,7 +6641,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-907976446286680066</t>
+          <t>t-1052528388341149696</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,11 +6654,11 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-908018109373730816</t>
+          <t>t-1060529365962948608</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C479" t="n">
         <v>1</v>
@@ -6667,24 +6667,24 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-619208680349765633</t>
+          <t>t-652506002957422592</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-1013800752567996416</t>
+          <t>t-740095983602782208</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C481" t="n">
         <v>1</v>
@@ -6693,7 +6693,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-661463139213565952</t>
+          <t>t-764828802384007168</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -6706,33 +6706,33 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-880072530329038848</t>
+          <t>t-800633887386988544</t>
         </is>
       </c>
       <c r="B483" t="n">
         <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-660041764225589248</t>
+          <t>t-557320938375905282</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-1004612435792232448</t>
+          <t>t-652334979544948736</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6745,20 +6745,20 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-669879511748579329</t>
+          <t>t-684255556144619520</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-670195512713330689</t>
+          <t>t-818362228881719296</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-685089211784019968</t>
+          <t>t-818369931054030848</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,7 +6784,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-692403922451992576</t>
+          <t>t-818390305326137344</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,11 +6797,11 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-695507166833184769</t>
+          <t>t-818474161949601796</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C490" t="n">
         <v>1</v>
@@ -6810,20 +6810,20 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-948994988666425345</t>
+          <t>t-818513625468010496</t>
         </is>
       </c>
       <c r="B491" t="n">
         <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-949010413437497347</t>
+          <t>t-818701658280628224</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,33 +6836,33 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-949151246799142913</t>
+          <t>t-818709014498443264</t>
         </is>
       </c>
       <c r="B493" t="n">
         <v>1</v>
       </c>
       <c r="C493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-950677684811640833</t>
+          <t>t-819113813505146880</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-703191098403872769</t>
+          <t>t-831105804946247681</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,20 +6875,20 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-703191473269780480</t>
+          <t>t-917052938425716736</t>
         </is>
       </c>
       <c r="B496" t="n">
         <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-703218090671214592</t>
+          <t>t-917054284579078144</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -6901,7 +6901,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-703248568765779969</t>
+          <t>t-917061971631108097</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,20 +6914,20 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-703357904250757120</t>
+          <t>t-917080429227778048</t>
         </is>
       </c>
       <c r="B499" t="n">
         <v>1</v>
       </c>
       <c r="C499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-703380366254612480</t>
+          <t>t-917105709682216960</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,46 +6940,46 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-703605156500381696</t>
+          <t>t-1018785093295464448</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-952055483354972160</t>
+          <t>t-565566410605473792</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-730493187534413824</t>
+          <t>t-837620098416459776</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-730679314916757504</t>
+          <t>t-1034815239219539970</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -6992,7 +6992,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-953202460994232320</t>
+          <t>t-1050114319227195392</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,7 +7005,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-953212881809518592</t>
+          <t>t-567369806647951362</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,24 +7018,24 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-737663862317682689</t>
+          <t>t-567639888489500672</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-737736248970911744</t>
+          <t>t-575707186204180480</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C508" t="n">
         <v>1</v>
@@ -7044,7 +7044,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-737976116753883136</t>
+          <t>t-731437259828924417</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -7057,7 +7057,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-738434736910176256</t>
+          <t>t-888068991020929025</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,37 +7070,37 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-957730126799802368</t>
+          <t>t-865160167155003392</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-811198180654272512</t>
+          <t>t-1024201138277638144</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-740249467828482048</t>
+          <t>t-580746776262545409</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C513" t="n">
         <v>0</v>
@@ -7109,24 +7109,24 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-740256345773985793</t>
+          <t>t-580822339648122880</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-740666936263118848</t>
+          <t>t-581167008596758528</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C515" t="n">
         <v>1</v>
@@ -7135,7 +7135,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-741525012784553985</t>
+          <t>t-760176410539528192</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,7 +7148,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-746386418465914880</t>
+          <t>t-859839256700882944</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,20 +7161,20 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-766238666905747456</t>
+          <t>t-860843222091935744</t>
         </is>
       </c>
       <c r="B518" t="n">
         <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-801835115894755328</t>
+          <t>t-861496628741640192</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7187,24 +7187,24 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-834802174559412225</t>
+          <t>t-1027292918111825921</t>
         </is>
       </c>
       <c r="B520" t="n">
         <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-834086991646048256</t>
+          <t>t-583674889480962049</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C521" t="n">
         <v>1</v>
@@ -7213,7 +7213,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-834349788053266432</t>
+          <t>t-940281474259062789</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,20 +7226,20 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-834805481759789056</t>
+          <t>t-962759977394991104</t>
         </is>
       </c>
       <c r="B523" t="n">
         <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-859444598309097473</t>
+          <t>t-624613462476337152</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -7252,33 +7252,33 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-859536182866317312</t>
+          <t>t-624628271745998852</t>
         </is>
       </c>
       <c r="B525" t="n">
         <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-1038090181595877376</t>
+          <t>t-743905323543629825</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-953919004132986880</t>
+          <t>t-955539710214057984</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,7 +7291,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-970932114597335040</t>
+          <t>t-955816204769390593</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,7 +7304,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-948508791448002560</t>
+          <t>t-955871714914766849</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,7 +7317,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-949999091047477249</t>
+          <t>t-968152808062160896</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,7 +7330,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-958848005502681088</t>
+          <t>t-633506882188021761</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,7 +7343,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-959068004729475072</t>
+          <t>t-1035170375703961601</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,7 +7356,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-1030184521969410055</t>
+          <t>t-1035201829989056512</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -7369,7 +7369,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-1043053295298899968</t>
+          <t>t-1035614467998998530</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,11 +7382,11 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-1043072721595375616</t>
+          <t>t-643112220348534784</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
         <v>0</v>
@@ -7395,11 +7395,11 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-1043145723687129090</t>
+          <t>t-801672831046221825</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C536" t="n">
         <v>0</v>
@@ -7408,37 +7408,37 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-676725475671085057</t>
+          <t>t-801706221803806720</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-510001639617351681</t>
+          <t>t-925429606693457921</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-529938272265703424</t>
+          <t>t-953295637679951872</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
         <v>1</v>
@@ -7447,37 +7447,37 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-643644357350948864</t>
+          <t>t-953311292475011072</t>
         </is>
       </c>
       <c r="B540" t="n">
         <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-674391856298385408</t>
+          <t>t-660041764225589248</t>
         </is>
       </c>
       <c r="B541" t="n">
         <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-674458539629219844</t>
+          <t>t-974126323248586752</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C542" t="n">
         <v>1</v>
@@ -7486,11 +7486,11 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-695965752088723456</t>
+          <t>t-1004612435792232448</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C543" t="n">
         <v>1</v>
@@ -7499,7 +7499,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-695968588012752896</t>
+          <t>t-666556746308198401</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,11 +7512,11 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-831833976029454338</t>
+          <t>t-669879511748579329</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C545" t="n">
         <v>1</v>
@@ -7525,102 +7525,102 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-852554541803417600</t>
+          <t>t-670195512713330689</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-875288006172831744</t>
+          <t>t-674905913438769153</t>
         </is>
       </c>
       <c r="B547" t="n">
         <v>1</v>
       </c>
       <c r="C547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-918517038053814277</t>
+          <t>t-808055620339384324</t>
         </is>
       </c>
       <c r="B548" t="n">
         <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-925890248541794304</t>
+          <t>t-681422251338674177</t>
         </is>
       </c>
       <c r="B549" t="n">
         <v>0</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-509160710316650496</t>
+          <t>t-829095437466533888</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>1</v>
       </c>
       <c r="C550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-509293535221145601</t>
+          <t>t-943797632639610881</t>
         </is>
       </c>
       <c r="B551" t="n">
         <v>1</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-632870673115774976</t>
+          <t>t-950677684811640833</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-697693466298552321</t>
+          <t>t-897572628667478020</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C553" t="n">
         <v>1</v>
@@ -7629,20 +7629,20 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-697911341554610176</t>
+          <t>t-730493187534413824</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-706517570451427328</t>
+          <t>t-730679314916757504</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,33 +7655,33 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-727016962102980608</t>
+          <t>t-734423204488445952</t>
         </is>
       </c>
       <c r="B556" t="n">
         <v>1</v>
       </c>
       <c r="C556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-727141031607595008</t>
+          <t>t-956932857389309953</t>
         </is>
       </c>
       <c r="B557" t="n">
         <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-806390063244410880</t>
+          <t>t-957576777848717312</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -7694,46 +7694,46 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-806499176066453505</t>
+          <t>t-1062323949680373760</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-823758777857908736</t>
+          <t>t-963803678573547520</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-823809561622695937</t>
+          <t>t-955134939699310592</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-823868915621052416</t>
+          <t>t-956210090935312384</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -7746,7 +7746,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-824113067696930816</t>
+          <t>t-956914853922459649</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -7759,24 +7759,24 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-824154025864167424</t>
+          <t>t-957307123943256064</t>
         </is>
       </c>
       <c r="B564" t="n">
         <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-824160171534467072</t>
+          <t>t-738790953792720896</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C565" t="n">
         <v>0</v>
@@ -7785,20 +7785,20 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-825053893184753664</t>
+          <t>t-906057103172923392</t>
         </is>
       </c>
       <c r="B566" t="n">
         <v>1</v>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-825136994833428480</t>
+          <t>t-1005463006455754752</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -7811,11 +7811,11 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-825930607427416064</t>
+          <t>t-755694559401762816</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C568" t="n">
         <v>1</v>
@@ -7824,11 +7824,11 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-914680114595602432</t>
+          <t>t-1041726034662633472</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C569" t="n">
         <v>1</v>
@@ -7837,20 +7837,20 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-1015491573092528128</t>
+          <t>t-766238666905747456</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-503088287381082112</t>
+          <t>t-775632377695600641</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,7 +7863,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-532513757776183296</t>
+          <t>t-775906484295204864</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,7 +7876,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-580217985706528769</t>
+          <t>t-801835115894755328</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,50 +7889,50 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-583500409458688000</t>
+          <t>t-803544744215384064</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-583500450495795200</t>
+          <t>t-806105457077186561</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-583501741481594881</t>
+          <t>t-806175022247280641</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-583504251168497664</t>
+          <t>t-806834354802438144</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C577" t="n">
         <v>1</v>
@@ -7941,24 +7941,24 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-583504875067056129</t>
+          <t>t-827575866729361408</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-584246834618474497</t>
+          <t>t-862319925528023040</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C579" t="n">
         <v>0</v>
@@ -7967,20 +7967,20 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-585340196557692928</t>
+          <t>t-862320640791121920</t>
         </is>
       </c>
       <c r="B580" t="n">
         <v>1</v>
       </c>
       <c r="C580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-587184590302814208</t>
+          <t>t-844564313012670464</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,7 +7993,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-587194258815221760</t>
+          <t>t-851409413646802945</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,20 +8006,20 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-587194893052747777</t>
+          <t>t-852898298344099840</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-605261202822807552</t>
+          <t>t-859444598309097473</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,20 +8032,20 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-605672293654654976</t>
+          <t>t-859536182866317312</t>
         </is>
       </c>
       <c r="B585" t="n">
         <v>1</v>
       </c>
       <c r="C585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-662632429539057666</t>
+          <t>t-875285232924188672</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,7 +8058,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-662681193154920448</t>
+          <t>t-887201249715789824</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,11 +8071,11 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-663567974029131776</t>
+          <t>t-890626982773481473</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C588" t="n">
         <v>0</v>
@@ -8084,7 +8084,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-666604346558271489</t>
+          <t>t-970932114597335040</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -8097,24 +8097,24 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-667233953934282752</t>
+          <t>t-906119454941171712</t>
         </is>
       </c>
       <c r="B590" t="n">
         <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-713640428369612800</t>
+          <t>t-940225923332403204</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C591" t="n">
         <v>1</v>
@@ -8123,11 +8123,11 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-713641932795215874</t>
+          <t>t-940273268677849088</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C592" t="n">
         <v>1</v>
@@ -8136,7 +8136,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-713645035460251648</t>
+          <t>t-949999091047477249</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -8149,7 +8149,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-713649642907406336</t>
+          <t>t-981841496902197248</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,46 +8162,46 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-713682083688767488</t>
+          <t>t-988323500330045442</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-714598783724597248</t>
+          <t>t-988749833476325376</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-714729459107119104</t>
+          <t>t-1004723222363955200</t>
         </is>
       </c>
       <c r="B597" t="n">
         <v>1</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-715080311059517440</t>
+          <t>t-1006233702052057088</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,11 +8214,11 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-718078465698881536</t>
+          <t>t-1051774073523634182</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C599" t="n">
         <v>0</v>
@@ -8227,7 +8227,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-718738885862232064</t>
+          <t>t-1052071039923044352</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,59 +8240,59 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-718790966774083584</t>
+          <t>t-1052145118726238209</t>
         </is>
       </c>
       <c r="B601" t="n">
         <v>1</v>
       </c>
       <c r="C601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-733931111152123906</t>
+          <t>t-1052182549513035776</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-734714075603718144</t>
+          <t>t-495525926722367488</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-734767651981905921</t>
+          <t>t-891629267066290176</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-735043937040093185</t>
+          <t>t-498746062224375809</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,37 +8305,37 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-799522784040849408</t>
+          <t>t-499104320717996032</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-807384780572459008</t>
+          <t>t-512537797442273280</t>
         </is>
       </c>
       <c r="B607" t="n">
         <v>0</v>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-838333127739260928</t>
+          <t>t-557932086149918722</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C608" t="n">
         <v>1</v>
@@ -8344,11 +8344,11 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-838721199874048000</t>
+          <t>t-558466774392266752</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C609" t="n">
         <v>1</v>
@@ -8357,20 +8357,20 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-868766918035079168</t>
+          <t>t-558501767688642560</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-924905228415193088</t>
+          <t>t-558892309320724482</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,46 +8383,46 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-529909835525939202</t>
+          <t>t-559263075183104000</t>
         </is>
       </c>
       <c r="B612" t="n">
         <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-756176490119647232</t>
+          <t>t-559573400780156928</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-961643380684959749</t>
+          <t>t-575891615593721856</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-1062500554134310912</t>
+          <t>t-616630261191716864</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,46 +8435,46 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-546954418067738625</t>
+          <t>t-658803849289990144</t>
         </is>
       </c>
       <c r="B616" t="n">
         <v>1</v>
       </c>
       <c r="C616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-547052080943214593</t>
+          <t>t-659014102774325248</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-547052404026249217</t>
+          <t>t-674391856298385408</t>
         </is>
       </c>
       <c r="B618" t="n">
         <v>1</v>
       </c>
       <c r="C618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-547288951820521472</t>
+          <t>t-674458539629219844</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,20 +8487,20 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-547333815882887168</t>
+          <t>t-785398387059269632</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-547368132457689088</t>
+          <t>t-796846317632790528</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,7 +8513,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-547431547935412224</t>
+          <t>t-798050241861840896</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-547610562692009985</t>
+          <t>t-798099061475684352</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,11 +8539,11 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-547694551637700608</t>
+          <t>t-890567544695906304</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C624" t="n">
         <v>0</v>
@@ -8552,24 +8552,24 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-555289784240054272</t>
+          <t>t-910155731134853120</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-555290912268750848</t>
+          <t>t-910165111620329472</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C626" t="n">
         <v>1</v>
@@ -8578,11 +8578,11 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-555447424768954368</t>
+          <t>t-912643743894949888</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C627" t="n">
         <v>1</v>
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-661588229892673536</t>
+          <t>t-727016962102980608</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-822370054381522945</t>
+          <t>t-727141031607595008</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,20 +8617,20 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-846329507103436800</t>
+          <t>t-772650812623290373</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-1000752833484881921</t>
+          <t>t-772781827224285184</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,11 +8643,11 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-1001352081465212928</t>
+          <t>t-773074057805737984</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C632" t="n">
         <v>0</v>
@@ -8656,11 +8656,11 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-1032843605826621440</t>
+          <t>t-820295860747542529</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C633" t="n">
         <v>1</v>
@@ -8669,24 +8669,24 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-521700184376770560</t>
+          <t>t-820993538456289280</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-527311291191263232</t>
+          <t>t-869476060991152129</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C635" t="n">
         <v>1</v>
@@ -8695,20 +8695,20 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-555323393890058240</t>
+          <t>t-965395788435046400</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-555327376440053760</t>
+          <t>t-976046458834116609</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,37 +8721,37 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-565428032685740033</t>
+          <t>t-527780384159703040</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-801391859083988993</t>
+          <t>t-533912579676975104</t>
         </is>
       </c>
       <c r="B639" t="n">
         <v>1</v>
       </c>
       <c r="C639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-829520315575177217</t>
+          <t>t-581777426016956417</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C640" t="n">
         <v>1</v>
@@ -8760,11 +8760,11 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-836878014587744257</t>
+          <t>t-685773216275533824</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C641" t="n">
         <v>1</v>
@@ -8773,7 +8773,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-969977636670918656</t>
+          <t>t-721601854761619457</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-694769781573050368</t>
+          <t>t-721697193174798336</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,11 +8799,11 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-703773712068116482</t>
+          <t>t-740813200766214144</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C644" t="n">
         <v>0</v>
@@ -8812,33 +8812,33 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-703855663269556224</t>
+          <t>t-842271490141634560</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-703940411761389571</t>
+          <t>t-842322052103122944</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-757365069608923136</t>
+          <t>t-842905808266448896</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,7 +8851,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-833843048253681665</t>
+          <t>t-842910185718931456</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,11 +8864,11 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-834648744150892546</t>
+          <t>t-845583720950128640</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C649" t="n">
         <v>1</v>
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-919103523458969600</t>
+          <t>t-870517868831449088</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,33 +8890,33 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-550823263941574657</t>
+          <t>t-924905228415193088</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-734168300121395200</t>
+          <t>t-931079635575586816</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-816403303852425216</t>
+          <t>t-931432910795653120</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,20 +8929,20 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-670770027604213760</t>
+          <t>t-932133115748696064</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-540747270207991808</t>
+          <t>t-932454853443334144</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,20 +8955,20 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-540776934658277377</t>
+          <t>t-1061598368164528128</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-773077201063407617</t>
+          <t>t-1061625768696930304</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,11 +8981,11 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-779194196724887553</t>
+          <t>t-1061782167494320130</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C658" t="n">
         <v>1</v>
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-785106169677230080</t>
+          <t>t-1062219458046058496</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,20 +9007,20 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-785108107227561984</t>
+          <t>t-830849870890102784</t>
         </is>
       </c>
       <c r="B660" t="n">
         <v>1</v>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-785110315553787904</t>
+          <t>t-830867426568867840</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,7 +9033,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-785111654228856832</t>
+          <t>t-831995329318772736</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-785153740848308225</t>
+          <t>t-592295516517502976</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-785284230573993984</t>
+          <t>t-661588229892673536</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,7 +9072,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-785337680368467968</t>
+          <t>t-678547534269177856</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,7 +9085,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-785343194607202304</t>
+          <t>t-788398448508739585</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,7 +9098,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-785389967123984386</t>
+          <t>t-788457694453637120</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,11 +9111,11 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-786190856218746880</t>
+          <t>t-802829831633108992</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C668" t="n">
         <v>1</v>
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-786491706409492481</t>
+          <t>t-523431319012139009</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,7 +9137,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-801652200724451332</t>
+          <t>t-757366725759242240</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-820620984231174145</t>
+          <t>t-757494302339571712</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,7 +9163,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-692022677649797120</t>
+          <t>t-757771911346749441</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,20 +9176,20 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-734985227739619329</t>
+          <t>t-757882635976790016</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-823731915236708352</t>
+          <t>t-758521629890650113</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,24 +9202,24 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-824143990274588672</t>
+          <t>t-791933405902442497</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-857803058968838144</t>
+          <t>t-664089575191478272</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C676" t="n">
         <v>1</v>
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-857867986841079808</t>
+          <t>t-777029515289563136</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,11 +9241,11 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-993018034288705536</t>
+          <t>t-777052253362335745</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C678" t="n">
         <v>1</v>
@@ -9254,20 +9254,20 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-599804476774436864</t>
+          <t>t-825956164366172160</t>
         </is>
       </c>
       <c r="B679" t="n">
         <v>1</v>
       </c>
       <c r="C679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-814411097864159233</t>
+          <t>t-825956302023163905</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,7 +9280,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-814414402203983872</t>
+          <t>t-825967811814125568</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,7 +9293,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-814417111921479680</t>
+          <t>t-825983840988467200</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,37 +9306,37 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-814418757657296896</t>
+          <t>t-666809196977909760</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-814543705935736832</t>
+          <t>t-689731867570900992</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-941530453147836416</t>
+          <t>t-703773712068116482</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C685" t="n">
         <v>0</v>
@@ -9345,7 +9345,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-1027038929319411712</t>
+          <t>t-703855663269556224</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-1027057881365901312</t>
+          <t>t-703940411761389571</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,20 +9371,20 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-1027179632922046467</t>
+          <t>t-550823263941574657</t>
         </is>
       </c>
       <c r="B688" t="n">
         <v>1</v>
       </c>
       <c r="C688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-1037871134488707072</t>
+          <t>t-557096941750743040</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-1037879643695529985</t>
+          <t>t-668452855993511936</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-1037893136482103296</t>
+          <t>t-681630649879543808</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-1037997508973060096</t>
+          <t>t-815040393884467200</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-564756286211100672</t>
+          <t>t-816403303852425216</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-565303060420112386</t>
+          <t>t-540747270207991808</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,11 +9462,11 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-565336619021262848</t>
+          <t>t-737185619730780161</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C695" t="n">
         <v>1</v>
@@ -9475,11 +9475,11 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-704474821959163905</t>
+          <t>t-753418052503502848</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C696" t="n">
         <v>1</v>
@@ -9488,7 +9488,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-780018288940158976</t>
+          <t>t-764336375894306816</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,20 +9501,20 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-781093621592383488</t>
+          <t>t-764417813717086208</t>
         </is>
       </c>
       <c r="B698" t="n">
         <v>1</v>
       </c>
       <c r="C698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-946271534502395905</t>
+          <t>t-801652200724451332</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,46 +9527,46 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-620194547256029184</t>
+          <t>t-919895715089932288</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-936534965277294597</t>
+          <t>t-966989390873378816</t>
         </is>
       </c>
       <c r="B701" t="n">
         <v>1</v>
       </c>
       <c r="C701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-936606274795462656</t>
+          <t>t-1060932314279170048</t>
         </is>
       </c>
       <c r="B702" t="n">
         <v>1</v>
       </c>
       <c r="C702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-954254379967660032</t>
+          <t>t-544020486527528960</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,59 +9579,59 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-1016952321333497856</t>
+          <t>t-809685070428524546</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-563225583400648704</t>
+          <t>t-734985227739619329</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-795497536291094528</t>
+          <t>t-557074144505114625</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-978443713629204480</t>
+          <t>t-941530453147836416</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-978559522900910080</t>
+          <t>t-832028212376985600</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -9644,20 +9644,20 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-605944627380817920</t>
+          <t>t-832064333504933888</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-674136729771577344</t>
+          <t>t-839272244895309824</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,24 +9670,24 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-718718501679017984</t>
+          <t>t-962542177514500096</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-720546793344270336</t>
+          <t>t-561946682707812352</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C712" t="n">
         <v>1</v>
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-935268837662052353</t>
+          <t>t-563242661562576896</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-935313787321585664</t>
+          <t>t-564304402253508608</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,11 +9722,11 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-935539265307660289</t>
+          <t>t-638407777333850112</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C715" t="n">
         <v>1</v>
@@ -9735,24 +9735,24 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-935690311879282688</t>
+          <t>t-698712295900229633</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-936855089326604288</t>
+          <t>t-729180420265279489</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C717" t="n">
         <v>0</v>
@@ -9761,20 +9761,20 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-572370799971053568</t>
+          <t>t-729281192772542465</t>
         </is>
       </c>
       <c r="B718" t="n">
         <v>0</v>
       </c>
       <c r="C718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-863292024522395649</t>
+          <t>t-754793839844397056</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,20 +9787,20 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-675601382867537920</t>
+          <t>t-795497536291094528</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-676436379425894400</t>
+          <t>t-677428252881784832</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-691264325659422721</t>
+          <t>t-720546793344270336</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-691280497184362497</t>
+          <t>t-845628167855357953</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-785264263749308416</t>
+          <t>t-796860246736052224</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-785310124797669377</t>
+          <t>t-1062157078439968770</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-785316828025421824</t>
+          <t>t-691264325659422721</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-785325402981924866</t>
+          <t>t-691280497184362497</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-785347096031268864</t>
+          <t>t-820218394255339521</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-786434119072821249</t>
+          <t>t-785264263749308416</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-935334721793306624</t>
+          <t>t-785310124797669377</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,13 +9930,52 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-935382314166693889</t>
+          <t>t-785316828025421824</t>
         </is>
       </c>
       <c r="B731" t="n">
         <v>1</v>
       </c>
       <c r="C731" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>t-785325402981924866</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>t-785347096031268864</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>1</v>
+      </c>
+      <c r="C733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>t-798490523820380160</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>1</v>
+      </c>
+      <c r="C734" t="n">
         <v>1</v>
       </c>
     </row>
